--- a/tests/FeaturesDefinition.xlsx
+++ b/tests/FeaturesDefinition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.shortcut-targets-by-id\1_cjGg4wtpwon9Q16G4tndJVUqWzXGz4n\DidonERC\Investigacion DIDONE\_MARTIN\musiF\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B63767-80C1-489A-996D-CEBBED14E90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F901159-395E-4967-9EE2-58BE7ACFE78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1050" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1837,6 +1837,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2057,10 +2060,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4880,10 +4883,10 @@
         <v>61</v>
       </c>
       <c r="K59" s="12">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="L59" s="12">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="M59" s="25">
         <v>0</v>
@@ -5024,10 +5027,10 @@
         <v>61</v>
       </c>
       <c r="K62" s="12">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L62" s="12">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M62" s="25">
         <v>0</v>
@@ -5120,10 +5123,10 @@
         <v>61</v>
       </c>
       <c r="K64" s="12">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L64" s="12">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M64" s="25">
         <v>0</v>
@@ -5216,7 +5219,7 @@
         <v>61</v>
       </c>
       <c r="K66" s="12">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L66" s="12">
         <v>500</v>
@@ -5264,7 +5267,7 @@
         <v>61</v>
       </c>
       <c r="K67" s="12">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L67" s="12">
         <v>500</v>
@@ -5765,7 +5768,7 @@
         <v>213</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>61</v>
@@ -6734,8 +6737,8 @@
       <c r="I98" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J98" s="24" t="s">
-        <v>19</v>
+      <c r="J98" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="K98" s="12">
         <v>0</v>
@@ -6782,8 +6785,8 @@
       <c r="I99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J99" s="24" t="s">
-        <v>19</v>
+      <c r="J99" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="K99" s="12">
         <v>0</v>
@@ -6831,7 +6834,7 @@
         <v>19</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="K100" s="12">
         <v>0</v>
@@ -6879,7 +6882,7 @@
         <v>19</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="K101" s="12">
         <v>0</v>
@@ -7890,7 +7893,7 @@
         <v>19</v>
       </c>
       <c r="K122" s="12">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="L122" s="12">
         <v>128</v>
@@ -8019,7 +8022,7 @@
         <v>67</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>19</v>
